--- a/ROOT/tmpfiles/Sahajaproduct-list.xlsx
+++ b/ROOT/tmpfiles/Sahajaproduct-list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="15576" windowHeight="7212"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="15570" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="." sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="97">
   <si>
     <t>S.No</t>
   </si>
@@ -302,17 +302,23 @@
   </si>
   <si>
     <t>Mango Alponso</t>
+  </si>
+  <si>
+    <t>Zuccini Green</t>
+  </si>
+  <si>
+    <t>Zuccini Yellow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,7 +553,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -582,7 +587,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,27 +762,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -786,7 +790,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -794,7 +798,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -802,7 +806,7 @@
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -816,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -827,10 +831,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -840,11 +844,11 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -854,11 +858,11 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -872,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -882,11 +886,11 @@
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -897,10 +901,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -910,11 +914,11 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -928,7 +932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -942,7 +946,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -952,11 +956,11 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -966,11 +970,11 @@
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -980,11 +984,11 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D16" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -994,11 +998,11 @@
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -1009,10 +1013,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -1036,11 +1040,11 @@
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -1050,11 +1054,11 @@
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D21" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -1065,10 +1069,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -1079,10 +1083,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="9">
         <v>20</v>
       </c>
@@ -1093,10 +1097,10 @@
         <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="9">
         <v>21</v>
       </c>
@@ -1106,11 +1110,11 @@
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="7">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D25" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="9">
         <v>22</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -1163,10 +1167,10 @@
         <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -1177,10 +1181,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -1194,7 +1198,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -1219,10 +1223,10 @@
         <v>8</v>
       </c>
       <c r="D33" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -1261,10 +1265,10 @@
         <v>8</v>
       </c>
       <c r="D36" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -1275,10 +1279,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -1303,10 +1307,10 @@
         <v>8</v>
       </c>
       <c r="D39" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -1317,10 +1321,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -1330,11 +1334,11 @@
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D41" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -1344,11 +1348,11 @@
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D42" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -1359,10 +1363,10 @@
         <v>8</v>
       </c>
       <c r="D43" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -1373,10 +1377,10 @@
         <v>8</v>
       </c>
       <c r="D44" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="9">
         <v>41</v>
       </c>
@@ -1387,10 +1391,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="9">
         <v>42</v>
       </c>
@@ -1401,10 +1405,10 @@
         <v>8</v>
       </c>
       <c r="D46" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75">
       <c r="A47" s="9">
         <v>43</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="9">
         <v>44</v>
       </c>
@@ -1429,10 +1433,10 @@
         <v>8</v>
       </c>
       <c r="D48" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="9">
         <v>45</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75">
       <c r="A50" s="9">
         <v>46</v>
       </c>
@@ -1457,10 +1461,10 @@
         <v>8</v>
       </c>
       <c r="D50" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75">
       <c r="A51" s="9">
         <v>47</v>
       </c>
@@ -1471,10 +1475,10 @@
         <v>8</v>
       </c>
       <c r="D51" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75">
       <c r="A52" s="9">
         <v>48</v>
       </c>
@@ -1485,10 +1489,10 @@
         <v>8</v>
       </c>
       <c r="D52" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75">
       <c r="A53" s="9">
         <v>49</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75">
       <c r="A54" s="9">
         <v>50</v>
       </c>
@@ -1513,10 +1517,10 @@
         <v>8</v>
       </c>
       <c r="D54" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75">
       <c r="A55" s="9">
         <v>51</v>
       </c>
@@ -1527,10 +1531,10 @@
         <v>8</v>
       </c>
       <c r="D55" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75">
       <c r="A56" s="9">
         <v>52</v>
       </c>
@@ -1541,10 +1545,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75">
       <c r="A57" s="9">
         <v>53</v>
       </c>
@@ -1555,10 +1559,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75">
       <c r="A58" s="9">
         <v>54</v>
       </c>
@@ -1566,13 +1570,13 @@
         <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D58" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75">
       <c r="A59" s="9">
         <v>55</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15.75">
       <c r="A60" s="9">
         <v>56</v>
       </c>
@@ -1594,13 +1598,13 @@
         <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15.75">
       <c r="A61" s="9">
         <v>57</v>
       </c>
@@ -1608,13 +1612,13 @@
         <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D61" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75">
       <c r="A62" s="9">
         <v>58</v>
       </c>
@@ -1622,13 +1626,13 @@
         <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D62" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75">
       <c r="A63" s="9">
         <v>59</v>
       </c>
@@ -1639,10 +1643,10 @@
         <v>8</v>
       </c>
       <c r="D63" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75">
       <c r="A64" s="9">
         <v>60</v>
       </c>
@@ -1656,7 +1660,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15.75">
       <c r="A65" s="9">
         <v>61</v>
       </c>
@@ -1666,11 +1670,11 @@
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D65" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75">
       <c r="A66" s="9">
         <v>62</v>
       </c>
@@ -1678,13 +1682,13 @@
         <v>68</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D66" s="7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75">
       <c r="A67" s="9">
         <v>63</v>
       </c>
@@ -1692,13 +1696,13 @@
         <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D67" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75">
       <c r="A68" s="9">
         <v>64</v>
       </c>
@@ -1706,13 +1710,13 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15.75">
       <c r="A69" s="9">
         <v>65</v>
       </c>
@@ -1720,13 +1724,13 @@
         <v>13</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15.75">
       <c r="A70" s="9">
         <v>66</v>
       </c>
@@ -1734,13 +1738,13 @@
         <v>14</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="9">
         <v>67</v>
       </c>
@@ -1750,11 +1754,11 @@
       <c r="C71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D71" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75">
       <c r="A72" s="9">
         <v>68</v>
       </c>
@@ -1762,13 +1766,13 @@
         <v>71</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D72" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15.75">
       <c r="A73" s="9">
         <v>69</v>
       </c>
@@ -1779,10 +1783,10 @@
         <v>8</v>
       </c>
       <c r="D73" s="7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75">
       <c r="A74" s="9">
         <v>70</v>
       </c>
@@ -1793,10 +1797,10 @@
         <v>8</v>
       </c>
       <c r="D74" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75">
       <c r="A75" s="9">
         <v>71</v>
       </c>
@@ -1810,7 +1814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15.75">
       <c r="A76" s="9">
         <v>72</v>
       </c>
@@ -1821,10 +1825,10 @@
         <v>8</v>
       </c>
       <c r="D76" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75">
       <c r="A77" s="9">
         <v>73</v>
       </c>
@@ -1835,10 +1839,10 @@
         <v>8</v>
       </c>
       <c r="D77" s="7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75">
       <c r="A78" s="9">
         <v>74</v>
       </c>
@@ -1848,11 +1852,11 @@
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D78" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75">
       <c r="A79" s="9">
         <v>75</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.75">
       <c r="A80" s="9">
         <v>76</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.75">
       <c r="A81" s="9">
         <v>77</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15.75">
       <c r="A82" s="9">
         <v>78</v>
       </c>
@@ -1904,11 +1908,11 @@
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D82" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75">
       <c r="A83" s="9">
         <v>79</v>
       </c>
@@ -1916,13 +1920,13 @@
         <v>79</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D83" s="7">
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15.75">
       <c r="A84" s="9">
         <v>80</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="9">
         <v>81</v>
       </c>
@@ -1947,10 +1951,10 @@
         <v>8</v>
       </c>
       <c r="D85" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75">
       <c r="A86" s="9">
         <v>82</v>
       </c>
@@ -1960,11 +1964,11 @@
       <c r="C86" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D86" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75">
       <c r="A87" s="9">
         <v>83</v>
       </c>
@@ -1974,11 +1978,11 @@
       <c r="C87" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D87" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75">
       <c r="A88" s="9">
         <v>84</v>
       </c>
@@ -1992,7 +1996,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="15.75">
       <c r="A89" s="9">
         <v>85</v>
       </c>
@@ -2003,7 +2007,35 @@
         <v>8</v>
       </c>
       <c r="D89" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75">
+      <c r="A90" s="9">
+        <v>86</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>95</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75">
+      <c r="A91" s="9">
+        <v>87</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="7">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
